--- a/web_resources_access_history.xlsx
+++ b/web_resources_access_history.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Page Href</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>http://meteoryt.pl/Asystent_Warsztat-k240.html</t>
+  </si>
+  <si>
+    <t>chidamberKemerer</t>
+  </si>
+  <si>
+    <t>http://www.aivosto.com/project/help/pm-oo-ck.html</t>
+  </si>
+  <si>
+    <t>08.05.2014</t>
+  </si>
+  <si>
+    <t>http://www.aivosto.com/project/help/pm-oo-mood.html</t>
+  </si>
+  <si>
+    <t>MOOD</t>
   </si>
 </sst>
 </file>
@@ -109,8 +124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="What"/>
     <tableColumn id="2" name="Page Href"/>
@@ -407,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +490,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/web_resources_access_history.xlsx
+++ b/web_resources_access_history.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Page Href</t>
   </si>
@@ -67,16 +67,33 @@
   </si>
   <si>
     <t>MOOD</t>
+  </si>
+  <si>
+    <t>http://arshaw.com/fullcalendar/</t>
+  </si>
+  <si>
+    <t>FullCalendar</t>
+  </si>
+  <si>
+    <t>24.06.2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,14 +116,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -124,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="What"/>
     <tableColumn id="2" name="Page Href"/>
@@ -422,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,11 +532,25 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
